--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1,32 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teppei/Dropbox/鉄兵/CODEforOSAKA/2019/20200312_COVID19/20200316/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379DFF22-8F26-1849-BF65-D4F9EF386E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="16500" yWindow="460" windowWidth="16500" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -48,11 +34,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,18 +53,12 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,14 +75,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -137,6 +114,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -199,10 +177,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$49</c:f>
+              <c:f>Sheet1!$A$3:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>43859</c:v>
                 </c:pt>
@@ -343,16 +321,40 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$49</c:f>
+              <c:f>Sheet1!$B$3:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>194</c:v>
                 </c:pt>
@@ -493,6 +495,30 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,13 +1258,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1518,403 +1538,461 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>43859</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>43860</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>43861</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>43862</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>43863</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>43864</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>43865</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>43866</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>43867</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>43868</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>43869</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>43870</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>43871</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>43872</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>43873</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>43874</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>43875</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>43876</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>43877</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>43878</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>43879</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>43880</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>43881</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>43882</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>43883</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>43884</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>288</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>43885</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>43886</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>43887</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>282</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>43888</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>43889</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>43890</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>43891</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>331</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>43892</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>43893</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>43894</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>43895</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>43896</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>43897</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>43898</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>43899</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43900</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>43901</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>273</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>43902</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <v>303</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>43903</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>43904</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <v>273</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>43905</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>43906</v>
+      </c>
       <c r="B50">
-        <f>SUM(B3:B49)</f>
-        <v>11248</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B51">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B52">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B53">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B54">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B55">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B56">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B57">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TanakaMo\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>相談件数</t>
     <rPh sb="0" eb="2">
@@ -27,6 +32,13 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時点</t>
+    <rPh sb="0" eb="2">
+      <t>ジテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -75,11 +87,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -177,10 +192,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$57</c:f>
+              <c:f>Sheet1!$A$3:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>43859</c:v>
                 </c:pt>
@@ -345,16 +360,22 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$57</c:f>
+              <c:f>Sheet1!$B$3:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>194</c:v>
                 </c:pt>
@@ -519,6 +540,12 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B57"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:D56"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1550,6 +1577,14 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
@@ -1993,6 +2028,22 @@
       </c>
       <c r="B57">
         <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B58">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B59">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1611,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2184,6 +2184,14 @@
         <v>43927</v>
       </c>
       <c r="B71">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B72">
         <v>423</v>
       </c>
     </row>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1611,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2193,6 +2193,14 @@
       </c>
       <c r="B72">
         <v>423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B73">
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1611,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2201,6 +2201,14 @@
       </c>
       <c r="B73">
         <v>424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B74">
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1611,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43930</v>
+        <v>43933</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2209,6 +2209,30 @@
       </c>
       <c r="B74">
         <v>413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B75">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B76">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B77">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1611,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A78" sqref="A78:B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2233,6 +2233,14 @@
       </c>
       <c r="B77">
         <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B78">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1611,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:B78"/>
+      <selection activeCell="A79" sqref="A79:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2241,6 +2241,14 @@
       </c>
       <c r="B78">
         <v>303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B79">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1611,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:B79"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2249,6 +2249,14 @@
       </c>
       <c r="B79">
         <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B80">
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1611,9 +1611,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2257,6 +2257,14 @@
       </c>
       <c r="B80">
         <v>406</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B81">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1611,9 +1611,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2257,14 +2257,6 @@
       </c>
       <c r="B80">
         <v>406</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B81">
-        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1611,9 +1611,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43936</v>
+        <v>43940</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2257,6 +2257,38 @@
       </c>
       <c r="B80">
         <v>406</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B81">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B82">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B83">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B84">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1611,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2289,6 +2289,14 @@
       </c>
       <c r="B84">
         <v>355</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B85">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1611,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2297,6 +2297,14 @@
       </c>
       <c r="B85">
         <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B86">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1611,9 +1611,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2305,6 +2305,14 @@
       </c>
       <c r="B86">
         <v>306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B87">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -87,7 +87,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -95,6 +95,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1611,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1624,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2313,6 +2319,14 @@
       </c>
       <c r="B87">
         <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="3">
+        <v>43944</v>
+      </c>
+      <c r="B88" s="4">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2327,6 +2327,30 @@
       </c>
       <c r="B88" s="4">
         <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B89" s="4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B90" s="4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B91" s="4">
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2351,6 +2351,14 @@
       </c>
       <c r="B91" s="4">
         <v>323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B92" s="4">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43948</v>
+        <v>43950</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2359,6 +2359,22 @@
       </c>
       <c r="B92" s="4">
         <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B93" s="4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B94" s="4">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2375,6 +2375,14 @@
       </c>
       <c r="B94" s="4">
         <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="3">
+        <v>43951</v>
+      </c>
+      <c r="B95" s="4">
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43951</v>
+        <v>43957</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2383,6 +2383,54 @@
       </c>
       <c r="B95" s="4">
         <v>299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="3">
+        <v>43952</v>
+      </c>
+      <c r="B96" s="4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="3">
+        <v>43953</v>
+      </c>
+      <c r="B97" s="4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="3">
+        <v>43954</v>
+      </c>
+      <c r="B98" s="4">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="3">
+        <v>43955</v>
+      </c>
+      <c r="B99" s="4">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="3">
+        <v>43956</v>
+      </c>
+      <c r="B100" s="4">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="3">
+        <v>43957</v>
+      </c>
+      <c r="B101" s="4">
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2431,6 +2431,14 @@
       </c>
       <c r="B101" s="4">
         <v>452</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="3">
+        <v>43958</v>
+      </c>
+      <c r="B102" s="4">
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2439,6 +2439,30 @@
       </c>
       <c r="B102" s="4">
         <v>462</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="3">
+        <v>43959</v>
+      </c>
+      <c r="B103" s="4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" s="3">
+        <v>43960</v>
+      </c>
+      <c r="B104" s="4">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="3">
+        <v>43961</v>
+      </c>
+      <c r="B105" s="4">
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2463,6 +2463,14 @@
       </c>
       <c r="B105" s="4">
         <v>435</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="3">
+        <v>43962</v>
+      </c>
+      <c r="B106" s="4">
+        <v>503</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2471,6 +2471,14 @@
       </c>
       <c r="B106" s="4">
         <v>503</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="3">
+        <v>43963</v>
+      </c>
+      <c r="B107" s="4">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2479,6 +2479,14 @@
       </c>
       <c r="B107" s="4">
         <v>372</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" s="3">
+        <v>43964</v>
+      </c>
+      <c r="B108" s="4">
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2487,6 +2487,14 @@
       </c>
       <c r="B108" s="4">
         <v>351</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" s="3">
+        <v>43965</v>
+      </c>
+      <c r="B109" s="4">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43965</v>
+        <v>43968</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2495,6 +2495,30 @@
       </c>
       <c r="B109" s="4">
         <v>320</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B110" s="4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B111" s="4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B112" s="4">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2519,6 +2519,22 @@
       </c>
       <c r="B112" s="4">
         <v>251</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="3">
+        <v>43969</v>
+      </c>
+      <c r="B113" s="4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="3">
+        <v>43970</v>
+      </c>
+      <c r="B114" s="4">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2535,6 +2535,14 @@
       </c>
       <c r="B114" s="4">
         <v>242</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" s="3">
+        <v>43971</v>
+      </c>
+      <c r="B115" s="4">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2543,6 +2543,14 @@
       </c>
       <c r="B115" s="4">
         <v>228</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="3">
+        <v>43972</v>
+      </c>
+      <c r="B116" s="4">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43972</v>
+        <v>43975</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2552,6 +2552,33 @@
       <c r="B116" s="4">
         <v>209</v>
       </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B117" s="4">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B118" s="4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B119" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B120" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
